--- a/docs/leadas_06/szk_2 (2).xlsx
+++ b/docs/leadas_06/szk_2 (2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Space-Miner\docs\leadas_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Space-Miner\docs\leadas_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E482D7-F2B3-4A91-A6CE-484EDC25B8DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D883D8ED-5EE0-4445-852C-54207EA02930}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>A kezedőfelületen 5 szám beütésével és enter lenyomásával indítható a Settler drills into asteroid menüpont alatt.</t>
   </si>
   <si>
-    <t>Settler drills  asteroid</t>
-  </si>
-  <si>
     <t>Szekvencia: 5.3.3, Kommunikációs: 5.4.3</t>
   </si>
   <si>
@@ -129,7 +126,10 @@
     <t xml:space="preserve"> A többlet hívások a kommunikációshoz képest: setCurrentLocaton(),  settAsteroidField(), accept(),canCraft(), checkWinCondition(), listOres(),getSize() getCount().</t>
   </si>
   <si>
-    <t xml:space="preserve">A vizsgált teszteset: a kőzetvastagság: 0, naptávolság: true.                                                                     A csapat jelezte hogy a hibák javításra kerültek egy másik dokumentációban de ezt mi nem kaptuk kézhez. Jelezve a lett a laborvezető felé.                                                                  </t>
+    <t>Settler drills into asteroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A vizsgált teszteset: a kőzetvastagság: 0, naptávolság: true.                                                                     A csapat jelezte hogy a hibák javításra kerültek egy másik dokumentációban de ezt mi nem kaptuk kézhez. Ez jelezve lett a laborvezető felé.                                                                  </t>
   </si>
 </sst>
 </file>
@@ -393,6 +393,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -405,15 +441,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -441,36 +468,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,18 +1209,18 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1232,11 +1232,11 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,12 +1248,12 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -1267,10 +1267,10 @@
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1278,10 +1278,10 @@
       <c r="B10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1307,12 +1307,12 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1323,11 +1323,11 @@
     </row>
     <row r="16" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,10 +1335,10 @@
       <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,10 @@
       <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="37"/>
+      <c r="C18" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="25"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1357,10 +1357,10 @@
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="37"/>
+      <c r="C19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,20 +1372,20 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1397,110 +1397,110 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="10"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="10"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="10"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="10"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="10"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
+      <c r="B35" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1512,101 +1512,101 @@
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="10"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="10"/>
       <c r="E40" s="5"/>
     </row>
     <row r="41" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="22"/>
+      <c r="C42" s="30"/>
       <c r="D42" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="10"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="10"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,6 +1682,30 @@
   </sheetData>
   <sheetProtection password="8E55" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="36">
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -1694,30 +1718,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
